--- a/03.엑셀자동화/total.xlsx
+++ b/03.엑셀자동화/total.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="32인치 모니터" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="게이밍 마우스" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="마우스 패드" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="기계식 키보드" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -835,4 +839,392 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>32인치 모니터</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>350000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>게이밍 마우스</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>마우스 패드</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>기계식 키보드</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>120000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/03.엑셀자동화/total.xlsx
+++ b/03.엑셀자동화/total.xlsx
@@ -21,13 +21,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <b val="1"/>
+      <color rgb="000077ff"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,12 +52,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,29 +455,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>순번</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>제품명</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>가격</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
@@ -485,10 +519,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>게이밍 마우스</t>
         </is>
@@ -847,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,7 +1114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
